--- a/database/Showtime.xlsx
+++ b/database/Showtime.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>movie</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>1450</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>21122022</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -574,21 +583,21 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="0">
-        <v>2</v>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>15122022</v>
-      </c>
-      <c r="E7" s="0">
-        <v>1300</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/database/Showtime.xlsx
+++ b/database/Showtime.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/Desktop/SC2002_Assignment/src/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558B7AF-3F58-3C43-9E9A-78B66BDC0343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA25A7B-0560-420F-8503-E28098D07E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="21760" windowHeight="16500" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>movie</t>
   </si>
@@ -65,9 +65,6 @@
     <t>T03</t>
   </si>
   <si>
-    <t>C02</t>
-  </si>
-  <si>
     <t>Downtown</t>
   </si>
   <si>
@@ -77,44 +74,28 @@
     <t>Tampines</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>22122022</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>11122022</t>
   </si>
   <si>
-    <t>1400</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>1450</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>21122022</t>
   </si>
   <si>
-    <t>6</t>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -469,135 +450,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA69B54E-1050-4942-9338-6C6E0043CE56}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="4" max="4" customWidth="true" style="2" width="13.0"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>10122022</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s" s="0">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10122022</v>
+      </c>
+      <c r="E3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10122022</v>
+      </c>
+      <c r="E4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D7" s="2">
         <v>12122022</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E7">
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="0">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D8" s="2">
         <v>13122022</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E8">
         <v>1300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="0">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D9" s="2">
         <v>14122022</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E9">
         <v>1230</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/database/Showtime.xlsx
+++ b/database/Showtime.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>movie</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>23122022</t>
+  </si>
+  <si>
+    <t>1500</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA69B54E-1050-4942-9338-6C6E0043CE56}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -583,21 +592,21 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="8">
+      <c r="A8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>18</v>
+      <c r="C8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/database/Showtime.xlsx
+++ b/database/Showtime.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/Desktop/SC2002_Assignment/src/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558B7AF-3F58-3C43-9E9A-78B66BDC0343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BD50B-4FAF-49D0-98D5-11E323FE6595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="21760" windowHeight="16500" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
+    <workbookView xWindow="5955" yWindow="5835" windowWidth="21600" windowHeight="11265" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>movie</t>
   </si>
@@ -65,9 +65,6 @@
     <t>T03</t>
   </si>
   <si>
-    <t>C02</t>
-  </si>
-  <si>
     <t>Downtown</t>
   </si>
   <si>
@@ -77,39 +74,15 @@
     <t>Tampines</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>22122022</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>11122022</t>
   </si>
   <si>
-    <t>1400</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>1450</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>21122022</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>D02</t>
   </si>
   <si>
@@ -117,13 +90,15 @@
   </si>
   <si>
     <t>1500</t>
+  </si>
+  <si>
+    <t>D03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -478,135 +453,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA69B54E-1050-4942-9338-6C6E0043CE56}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="4" max="4" customWidth="true" style="2" width="13.0"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>10122022</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s" s="0">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10122022</v>
+      </c>
+      <c r="E3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10122022</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10122022</v>
+      </c>
+      <c r="E5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12122022</v>
+      </c>
+      <c r="E7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13122022</v>
+      </c>
+      <c r="E8">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14122022</v>
+      </c>
+      <c r="E9">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>12122022</v>
-      </c>
-      <c r="E4" s="0">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>13122022</v>
-      </c>
-      <c r="E5" s="0">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>14122022</v>
-      </c>
-      <c r="E6" s="0">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/database/Showtime.xlsx
+++ b/database/Showtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BD50B-4FAF-49D0-98D5-11E323FE6595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E057C73-9CF6-4E7A-A5F1-F7BBA14EE3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="5835" windowWidth="21600" windowHeight="11265" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
+    <workbookView xWindow="5370" yWindow="4500" windowWidth="21600" windowHeight="11265" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>movie</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>D03</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA69B54E-1050-4942-9338-6C6E0043CE56}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -635,6 +641,108 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15122022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>17122022</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12122022</v>
+      </c>
+      <c r="E15">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13122022</v>
+      </c>
+      <c r="E16">
+        <v>1630</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/Showtime.xlsx
+++ b/database/Showtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E057C73-9CF6-4E7A-A5F1-F7BBA14EE3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B975338-272F-4877-9923-F2B55D66E781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="4500" windowWidth="21600" windowHeight="11265" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="8710" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>movie</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>C03</t>
+  </si>
+  <si>
+    <t>T02</t>
   </si>
 </sst>
 </file>
@@ -459,19 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA69B54E-1050-4942-9338-6C6E0043CE56}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,7 +508,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -522,7 +525,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -539,7 +542,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
@@ -556,7 +559,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -573,9 +576,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -590,9 +593,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -601,13 +604,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>13122022</v>
+        <v>14112022</v>
       </c>
       <c r="E8">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -615,16 +618,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>14122022</v>
+        <v>14112022</v>
       </c>
       <c r="E9">
         <v>1230</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -641,7 +644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -658,7 +661,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -675,7 +678,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -692,7 +695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -709,7 +712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -726,7 +729,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -741,6 +744,40 @@
       </c>
       <c r="E16">
         <v>1630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>13122022</v>
+      </c>
+      <c r="E17">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>14112022</v>
+      </c>
+      <c r="E18">
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
